--- a/natmiOut/OldD2/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.1878455899906</v>
+        <v>15.719429</v>
       </c>
       <c r="H2">
-        <v>14.1878455899906</v>
+        <v>31.438858</v>
       </c>
       <c r="I2">
-        <v>0.03500574119903162</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J2">
-        <v>0.03500574119903162</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>25.95376788548558</v>
+        <v>31.738250244734</v>
       </c>
       <c r="R2">
-        <v>25.95376788548558</v>
+        <v>126.953000978936</v>
       </c>
       <c r="S2">
-        <v>0.000130098367632379</v>
+        <v>0.0001453213141055042</v>
       </c>
       <c r="T2">
-        <v>0.000130098367632379</v>
+        <v>7.40415518991504E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.1878455899906</v>
+        <v>15.719429</v>
       </c>
       <c r="H3">
-        <v>14.1878455899906</v>
+        <v>31.438858</v>
       </c>
       <c r="I3">
-        <v>0.03500574119903162</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J3">
-        <v>0.03500574119903162</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>1865.86586005169</v>
+        <v>2195.922752259683</v>
       </c>
       <c r="R3">
-        <v>1865.86586005169</v>
+        <v>13175.5365135581</v>
       </c>
       <c r="S3">
-        <v>0.009353019711232889</v>
+        <v>0.01005456751937672</v>
       </c>
       <c r="T3">
-        <v>0.009353019711232889</v>
+        <v>0.007684238758007964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.1878455899906</v>
+        <v>15.719429</v>
       </c>
       <c r="H4">
-        <v>14.1878455899906</v>
+        <v>31.438858</v>
       </c>
       <c r="I4">
-        <v>0.03500574119903162</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J4">
-        <v>0.03500574119903162</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>2613.77797139941</v>
+        <v>2929.391891018557</v>
       </c>
       <c r="R4">
-        <v>2613.77797139941</v>
+        <v>17576.35134611134</v>
       </c>
       <c r="S4">
-        <v>0.01310207631249963</v>
+        <v>0.01341293473490893</v>
       </c>
       <c r="T4">
-        <v>0.01310207631249963</v>
+        <v>0.0102508827704414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.1878455899906</v>
+        <v>15.719429</v>
       </c>
       <c r="H5">
-        <v>14.1878455899906</v>
+        <v>31.438858</v>
       </c>
       <c r="I5">
-        <v>0.03500574119903162</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J5">
-        <v>0.03500574119903162</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>1982.386643372521</v>
+        <v>2257.391734951181</v>
       </c>
       <c r="R5">
-        <v>1982.386643372521</v>
+        <v>13544.35040970709</v>
       </c>
       <c r="S5">
-        <v>0.009937103061757263</v>
+        <v>0.01033601823807029</v>
       </c>
       <c r="T5">
-        <v>0.009937103061757263</v>
+        <v>0.007899338464373896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.1878455899906</v>
+        <v>15.719429</v>
       </c>
       <c r="H6">
-        <v>14.1878455899906</v>
+        <v>31.438858</v>
       </c>
       <c r="I6">
-        <v>0.03500574119903162</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J6">
-        <v>0.03500574119903162</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>70.35380353397171</v>
+        <v>98.3048341685447</v>
       </c>
       <c r="R6">
-        <v>70.35380353397171</v>
+        <v>589.8290050112681</v>
       </c>
       <c r="S6">
-        <v>0.0003526622815185732</v>
+        <v>0.0004501126424468493</v>
       </c>
       <c r="T6">
-        <v>0.0003526622815185732</v>
+        <v>0.0003440001776201578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.1878455899906</v>
+        <v>15.719429</v>
       </c>
       <c r="H7">
-        <v>14.1878455899906</v>
+        <v>31.438858</v>
       </c>
       <c r="I7">
-        <v>0.03500574119903162</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J7">
-        <v>0.03500574119903162</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>425.0768748902628</v>
+        <v>471.0063520817105</v>
       </c>
       <c r="R7">
-        <v>425.0768748902628</v>
+        <v>1884.025408326842</v>
       </c>
       <c r="S7">
-        <v>0.002130781464390889</v>
+        <v>0.002156617378360695</v>
       </c>
       <c r="T7">
-        <v>0.002130781464390889</v>
+        <v>0.001098801635048352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>241.63529366561</v>
+        <v>256.32429</v>
       </c>
       <c r="H8">
-        <v>241.63529366561</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I8">
-        <v>0.5961879484068979</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J8">
-        <v>0.5961879484068979</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>442.0224540054739</v>
+        <v>517.5305324273401</v>
       </c>
       <c r="R8">
-        <v>442.0224540054739</v>
+        <v>3105.18319456404</v>
       </c>
       <c r="S8">
-        <v>0.002215724513554367</v>
+        <v>0.002369639677112975</v>
       </c>
       <c r="T8">
-        <v>0.002215724513554367</v>
+        <v>0.001811005497182615</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>241.63529366561</v>
+        <v>256.32429</v>
       </c>
       <c r="H9">
-        <v>241.63529366561</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I9">
-        <v>0.5961879484068979</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J9">
-        <v>0.5961879484068979</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>31777.83703484221</v>
+        <v>35807.1746987635</v>
       </c>
       <c r="R9">
-        <v>31777.83703484221</v>
+        <v>322264.5722888715</v>
       </c>
       <c r="S9">
-        <v>0.1592926600623862</v>
+        <v>0.163951876411115</v>
       </c>
       <c r="T9">
-        <v>0.1592926600623862</v>
+        <v>0.1879512013925767</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>241.63529366561</v>
+        <v>256.32429</v>
       </c>
       <c r="H10">
-        <v>241.63529366561</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I10">
-        <v>0.5961879484068979</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J10">
-        <v>0.5961879484068979</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>44515.63866337632</v>
+        <v>47767.27555416224</v>
       </c>
       <c r="R10">
-        <v>44515.63866337632</v>
+        <v>429905.4799874601</v>
       </c>
       <c r="S10">
-        <v>0.2231433967418995</v>
+        <v>0.2187141131361622</v>
       </c>
       <c r="T10">
-        <v>0.2231433967418995</v>
+        <v>0.2507295508004735</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>241.63529366561</v>
+        <v>256.32429</v>
       </c>
       <c r="H11">
-        <v>241.63529366561</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I11">
-        <v>0.5961879484068979</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J11">
-        <v>0.5961879484068979</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>33762.31970469446</v>
+        <v>36809.50075942514</v>
       </c>
       <c r="R11">
-        <v>33762.31970469446</v>
+        <v>331285.5068348263</v>
       </c>
       <c r="S11">
-        <v>0.1692402698692423</v>
+        <v>0.1685412705703508</v>
       </c>
       <c r="T11">
-        <v>0.1692402698692423</v>
+        <v>0.1932123924492101</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>241.63529366561</v>
+        <v>256.32429</v>
       </c>
       <c r="H12">
-        <v>241.63529366561</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I12">
-        <v>0.5961879484068979</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J12">
-        <v>0.5961879484068979</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>1198.206018637334</v>
+        <v>1602.979142678781</v>
       </c>
       <c r="R12">
-        <v>1198.206018637334</v>
+        <v>14426.81228410902</v>
       </c>
       <c r="S12">
-        <v>0.006006243401721495</v>
+        <v>0.007339630688570971</v>
       </c>
       <c r="T12">
-        <v>0.006006243401721495</v>
+        <v>0.008414008036331425</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>241.63529366561</v>
+        <v>256.32429</v>
       </c>
       <c r="H13">
-        <v>241.63529366561</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I13">
-        <v>0.5961879484068979</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J13">
-        <v>0.5961879484068979</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>7239.547036445896</v>
+        <v>7680.327878502106</v>
       </c>
       <c r="R13">
-        <v>7239.547036445896</v>
+        <v>46081.96727101263</v>
       </c>
       <c r="S13">
-        <v>0.03628965381809404</v>
+        <v>0.03516625306873211</v>
       </c>
       <c r="T13">
-        <v>0.03628965381809404</v>
+        <v>0.02687593318001003</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.486059389495039</v>
+        <v>0.2855083333333333</v>
       </c>
       <c r="H14">
-        <v>0.486059389495039</v>
+        <v>0.856525</v>
       </c>
       <c r="I14">
-        <v>0.001199256722107724</v>
+        <v>0.0006639503500063851</v>
       </c>
       <c r="J14">
-        <v>0.001199256722107724</v>
+        <v>0.0007451630433964635</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>0.8891464523983044</v>
+        <v>0.5764544583833332</v>
       </c>
       <c r="R14">
-        <v>0.8891464523983044</v>
+        <v>3.4587267503</v>
       </c>
       <c r="S14">
-        <v>4.45702152202075E-06</v>
+        <v>2.639437233252703E-06</v>
       </c>
       <c r="T14">
-        <v>4.45702152202075E-06</v>
+        <v>2.017199232886252E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.486059389495039</v>
+        <v>0.2855083333333333</v>
       </c>
       <c r="H15">
-        <v>0.486059389495039</v>
+        <v>0.856525</v>
       </c>
       <c r="I15">
-        <v>0.001199256722107724</v>
+        <v>0.0006639503500063851</v>
       </c>
       <c r="J15">
-        <v>0.001199256722107724</v>
+        <v>0.0007451630433964635</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>63.92243382294669</v>
+        <v>39.88403428180555</v>
       </c>
       <c r="R15">
-        <v>63.92243382294669</v>
+        <v>358.9563085362499</v>
       </c>
       <c r="S15">
-        <v>0.0003204237755437777</v>
+        <v>0.000182618771638888</v>
       </c>
       <c r="T15">
-        <v>0.0003204237755437777</v>
+        <v>0.000209350562358301</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.486059389495039</v>
+        <v>0.2855083333333333</v>
       </c>
       <c r="H16">
-        <v>0.486059389495039</v>
+        <v>0.856525</v>
       </c>
       <c r="I16">
-        <v>0.001199256722107724</v>
+        <v>0.0006639503500063851</v>
       </c>
       <c r="J16">
-        <v>0.001199256722107724</v>
+        <v>0.0007451630433964635</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>89.54504875287557</v>
+        <v>53.20586367894722</v>
       </c>
       <c r="R16">
-        <v>89.54504875287557</v>
+        <v>478.852773110525</v>
       </c>
       <c r="S16">
-        <v>0.0004488621738358801</v>
+        <v>0.0002436160143776611</v>
       </c>
       <c r="T16">
-        <v>0.0004488621738358801</v>
+        <v>0.0002792765998355385</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.486059389495039</v>
+        <v>0.2855083333333333</v>
       </c>
       <c r="H17">
-        <v>0.486059389495039</v>
+        <v>0.856525</v>
       </c>
       <c r="I17">
-        <v>0.001199256722107724</v>
+        <v>0.0006639503500063851</v>
       </c>
       <c r="J17">
-        <v>0.001199256722107724</v>
+        <v>0.0007451630433964635</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>67.91430281004388</v>
+        <v>41.00048111966111</v>
       </c>
       <c r="R17">
-        <v>67.91430281004388</v>
+        <v>369.00433007695</v>
       </c>
       <c r="S17">
-        <v>0.0003404338041960759</v>
+        <v>0.0001877306955904305</v>
       </c>
       <c r="T17">
-        <v>0.0003404338041960759</v>
+        <v>0.0002152107712754023</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.486059389495039</v>
+        <v>0.2855083333333333</v>
       </c>
       <c r="H18">
-        <v>0.486059389495039</v>
+        <v>0.856525</v>
       </c>
       <c r="I18">
-        <v>0.001199256722107724</v>
+        <v>0.0006639503500063851</v>
       </c>
       <c r="J18">
-        <v>0.001199256722107724</v>
+        <v>0.0007451630433964635</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>2.410240975451641</v>
+        <v>1.785487841961111</v>
       </c>
       <c r="R18">
-        <v>2.410240975451641</v>
+        <v>16.06939057765</v>
       </c>
       <c r="S18">
-        <v>1.208180707674017E-05</v>
+        <v>8.17529124990879E-06</v>
       </c>
       <c r="T18">
-        <v>1.208180707674017E-05</v>
+        <v>9.371992841982545E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.486059389495039</v>
+        <v>0.2855083333333333</v>
       </c>
       <c r="H19">
-        <v>0.486059389495039</v>
+        <v>0.856525</v>
       </c>
       <c r="I19">
-        <v>0.001199256722107724</v>
+        <v>0.0006639503500063851</v>
       </c>
       <c r="J19">
-        <v>0.001199256722107724</v>
+        <v>0.0007451630433964635</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>14.5626483589153</v>
+        <v>8.554778839120832</v>
       </c>
       <c r="R19">
-        <v>14.5626483589153</v>
+        <v>51.328673034725</v>
       </c>
       <c r="S19">
-        <v>7.299813993322909E-05</v>
+        <v>3.917013991624408E-05</v>
       </c>
       <c r="T19">
-        <v>7.299813993322909E-05</v>
+        <v>2.993591785235295E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.1362313837129</v>
+        <v>0.5736413333333333</v>
       </c>
       <c r="H20">
-        <v>24.1362313837129</v>
+        <v>1.720924</v>
       </c>
       <c r="I20">
-        <v>0.05955144239335908</v>
+        <v>0.001334004368972754</v>
       </c>
       <c r="J20">
-        <v>0.05955144239335908</v>
+        <v>0.00149717634078867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>44.15230931221828</v>
+        <v>1.158208239501333</v>
       </c>
       <c r="R20">
-        <v>44.15230931221828</v>
+        <v>6.949249437008</v>
       </c>
       <c r="S20">
-        <v>0.000221322136888334</v>
+        <v>5.303138707215989E-06</v>
       </c>
       <c r="T20">
-        <v>0.000221322136888334</v>
+        <v>4.052942497481731E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.1362313837129</v>
+        <v>0.5736413333333333</v>
       </c>
       <c r="H21">
-        <v>24.1362313837129</v>
+        <v>1.720924</v>
       </c>
       <c r="I21">
-        <v>0.05955144239335908</v>
+        <v>0.001334004368972754</v>
       </c>
       <c r="J21">
-        <v>0.05955144239335908</v>
+        <v>0.00149717634078867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>3174.193702879726</v>
+        <v>80.13472089242221</v>
       </c>
       <c r="R21">
-        <v>3174.193702879726</v>
+        <v>721.2124880317999</v>
       </c>
       <c r="S21">
-        <v>0.01591127042191712</v>
+        <v>0.0003669163503270561</v>
       </c>
       <c r="T21">
-        <v>0.01591127042191712</v>
+        <v>0.0004206256760466966</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.1362313837129</v>
+        <v>0.5736413333333333</v>
       </c>
       <c r="H22">
-        <v>24.1362313837129</v>
+        <v>1.720924</v>
       </c>
       <c r="I22">
-        <v>0.05955144239335908</v>
+        <v>0.001334004368972754</v>
       </c>
       <c r="J22">
-        <v>0.05955144239335908</v>
+        <v>0.00149717634078867</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>4446.534852892326</v>
+        <v>106.9008467304849</v>
       </c>
       <c r="R22">
-        <v>4446.534852892326</v>
+        <v>962.107620574364</v>
       </c>
       <c r="S22">
-        <v>0.02228913075489459</v>
+        <v>0.0004894715810126524</v>
       </c>
       <c r="T22">
-        <v>0.02228913075489459</v>
+        <v>0.0005611205782614332</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.1362313837129</v>
+        <v>0.5736413333333333</v>
       </c>
       <c r="H23">
-        <v>24.1362313837129</v>
+        <v>1.720924</v>
       </c>
       <c r="I23">
-        <v>0.05955144239335908</v>
+        <v>0.001334004368972754</v>
       </c>
       <c r="J23">
-        <v>0.05955144239335908</v>
+        <v>0.00149717634078867</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>3372.417779213568</v>
+        <v>82.37787801917244</v>
       </c>
       <c r="R23">
-        <v>3372.417779213568</v>
+        <v>741.400902172552</v>
       </c>
       <c r="S23">
-        <v>0.01690490760285573</v>
+        <v>0.0003771871919421687</v>
       </c>
       <c r="T23">
-        <v>0.01690490760285573</v>
+        <v>0.0004323999665466278</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.1362313837129</v>
+        <v>0.5736413333333333</v>
       </c>
       <c r="H24">
-        <v>24.1362313837129</v>
+        <v>1.720924</v>
       </c>
       <c r="I24">
-        <v>0.05955144239335908</v>
+        <v>0.001334004368972754</v>
       </c>
       <c r="J24">
-        <v>0.05955144239335908</v>
+        <v>0.00149717634078867</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>119.6852383295035</v>
+        <v>3.587389602100445</v>
       </c>
       <c r="R24">
-        <v>119.6852383295035</v>
+        <v>32.286506418904</v>
       </c>
       <c r="S24">
-        <v>0.0005999458038255983</v>
+        <v>1.642573762465548E-05</v>
       </c>
       <c r="T24">
-        <v>0.0005999458038255983</v>
+        <v>1.883014203858144E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.1362313837129</v>
+        <v>0.5736413333333333</v>
       </c>
       <c r="H25">
-        <v>24.1362313837129</v>
+        <v>1.720924</v>
       </c>
       <c r="I25">
-        <v>0.05955144239335908</v>
+        <v>0.001334004368972754</v>
       </c>
       <c r="J25">
-        <v>0.05955144239335908</v>
+        <v>0.00149717634078867</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>723.1368387216683</v>
+        <v>17.18820141727933</v>
       </c>
       <c r="R25">
-        <v>723.1368387216683</v>
+        <v>103.129208503676</v>
       </c>
       <c r="S25">
-        <v>0.003624865672977711</v>
+        <v>7.870036935900579E-05</v>
       </c>
       <c r="T25">
-        <v>0.003624865672977711</v>
+        <v>6.014703539784905E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>124.855103655737</v>
+        <v>32.233823</v>
       </c>
       <c r="H26">
-        <v>124.855103655737</v>
+        <v>96.701469</v>
       </c>
       <c r="I26">
-        <v>0.3080556112786038</v>
+        <v>0.07495983676913295</v>
       </c>
       <c r="J26">
-        <v>0.3080556112786038</v>
+        <v>0.08412873055771726</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>228.3969302488995</v>
+        <v>65.081571392858</v>
       </c>
       <c r="R26">
-        <v>228.3969302488995</v>
+        <v>390.489428357148</v>
       </c>
       <c r="S26">
-        <v>0.001144884547351042</v>
+        <v>0.0002979918365358069</v>
       </c>
       <c r="T26">
-        <v>0.001144884547351042</v>
+        <v>0.0002277413141306718</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>124.855103655737</v>
+        <v>32.233823</v>
       </c>
       <c r="H27">
-        <v>124.855103655737</v>
+        <v>96.701469</v>
       </c>
       <c r="I27">
-        <v>0.3080556112786038</v>
+        <v>0.07495983676913295</v>
       </c>
       <c r="J27">
-        <v>0.3080556112786038</v>
+        <v>0.08412873055771726</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>16419.89080631155</v>
+        <v>4502.897994450783</v>
       </c>
       <c r="R27">
-        <v>16419.89080631155</v>
+        <v>40526.08195005704</v>
       </c>
       <c r="S27">
-        <v>0.082307933091969</v>
+        <v>0.02061761593001489</v>
       </c>
       <c r="T27">
-        <v>0.082307933091969</v>
+        <v>0.02363562875108586</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>124.855103655737</v>
+        <v>32.233823</v>
       </c>
       <c r="H28">
-        <v>124.855103655737</v>
+        <v>96.701469</v>
       </c>
       <c r="I28">
-        <v>0.3080556112786038</v>
+        <v>0.07495983676913295</v>
       </c>
       <c r="J28">
-        <v>0.3080556112786038</v>
+        <v>0.08412873055771726</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>23001.62610892719</v>
+        <v>6006.929368282235</v>
       </c>
       <c r="R28">
-        <v>23001.62610892719</v>
+        <v>54062.36431454011</v>
       </c>
       <c r="S28">
-        <v>0.1153001761773193</v>
+        <v>0.02750419014301387</v>
       </c>
       <c r="T28">
-        <v>0.1153001761773193</v>
+        <v>0.03153026176868361</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>124.855103655737</v>
+        <v>32.233823</v>
       </c>
       <c r="H29">
-        <v>124.855103655737</v>
+        <v>96.701469</v>
       </c>
       <c r="I29">
-        <v>0.3080556112786038</v>
+        <v>0.07495983676913295</v>
       </c>
       <c r="J29">
-        <v>0.3080556112786038</v>
+        <v>0.08412873055771726</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>17445.29063796984</v>
+        <v>4628.944577190385</v>
       </c>
       <c r="R29">
-        <v>17445.29063796984</v>
+        <v>41660.50119471346</v>
       </c>
       <c r="S29">
-        <v>0.08744795148382122</v>
+        <v>0.02119475092961262</v>
       </c>
       <c r="T29">
-        <v>0.08744795148382122</v>
+        <v>0.0242972449455117</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>124.855103655737</v>
+        <v>32.233823</v>
       </c>
       <c r="H30">
-        <v>124.855103655737</v>
+        <v>96.701469</v>
       </c>
       <c r="I30">
-        <v>0.3080556112786038</v>
+        <v>0.07495983676913295</v>
       </c>
       <c r="J30">
-        <v>0.3080556112786038</v>
+        <v>0.08412873055771726</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>619.1236983158635</v>
+        <v>201.5811531470527</v>
       </c>
       <c r="R30">
-        <v>619.1236983158635</v>
+        <v>1814.230378323474</v>
       </c>
       <c r="S30">
-        <v>0.003103479343300305</v>
+        <v>0.000922988439764194</v>
       </c>
       <c r="T30">
-        <v>0.003103479343300305</v>
+        <v>0.001058095765187469</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>32.233823</v>
+      </c>
+      <c r="H31">
+        <v>96.701469</v>
+      </c>
+      <c r="I31">
+        <v>0.07495983676913295</v>
+      </c>
+      <c r="J31">
+        <v>0.08412873055771726</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>29.9633245</v>
+      </c>
+      <c r="N31">
+        <v>59.926649</v>
+      </c>
+      <c r="O31">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P31">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q31">
+        <v>965.8324984245635</v>
+      </c>
+      <c r="R31">
+        <v>5794.994990547381</v>
+      </c>
+      <c r="S31">
+        <v>0.004422299490191576</v>
+      </c>
+      <c r="T31">
+        <v>0.003379758013117955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>124.877892</v>
+      </c>
+      <c r="H32">
+        <v>249.755784</v>
+      </c>
+      <c r="I32">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J32">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.019046</v>
+      </c>
+      <c r="N32">
+        <v>4.038092</v>
+      </c>
+      <c r="O32">
+        <v>0.003975353327590414</v>
+      </c>
+      <c r="P32">
+        <v>0.002707057536954368</v>
+      </c>
+      <c r="Q32">
+        <v>252.134208331032</v>
+      </c>
+      <c r="R32">
+        <v>1008.536833324128</v>
+      </c>
+      <c r="S32">
+        <v>0.001154457923895659</v>
+      </c>
+      <c r="T32">
+        <v>0.0005881990320115634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>124.877892</v>
+      </c>
+      <c r="H33">
+        <v>249.755784</v>
+      </c>
+      <c r="I33">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J33">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N33">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O33">
+        <v>0.2750488370661026</v>
+      </c>
+      <c r="P33">
+        <v>0.2809459811695414</v>
+      </c>
+      <c r="Q33">
+        <v>17444.7942286598</v>
+      </c>
+      <c r="R33">
+        <v>104668.7653719588</v>
+      </c>
+      <c r="S33">
+        <v>0.07987524208362996</v>
+      </c>
+      <c r="T33">
+        <v>0.061044936029466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>124.877892</v>
+      </c>
+      <c r="H34">
+        <v>249.755784</v>
+      </c>
+      <c r="I34">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J34">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>186.3548536666667</v>
+      </c>
+      <c r="N34">
+        <v>559.064561</v>
+      </c>
+      <c r="O34">
+        <v>0.3669190239530987</v>
+      </c>
+      <c r="P34">
+        <v>0.3747858972750337</v>
+      </c>
+      <c r="Q34">
+        <v>23271.60128986181</v>
+      </c>
+      <c r="R34">
+        <v>139629.6077391708</v>
+      </c>
+      <c r="S34">
+        <v>0.1065546983436234</v>
+      </c>
+      <c r="T34">
+        <v>0.08143480475733829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>124.877892</v>
+      </c>
+      <c r="H35">
+        <v>249.755784</v>
+      </c>
+      <c r="I35">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J35">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>143.6051993333333</v>
+      </c>
+      <c r="N35">
+        <v>430.815598</v>
+      </c>
+      <c r="O35">
+        <v>0.2827480934208787</v>
+      </c>
+      <c r="P35">
+        <v>0.2888103122968479</v>
+      </c>
+      <c r="Q35">
+        <v>17933.11457298647</v>
+      </c>
+      <c r="R35">
+        <v>107598.6874379188</v>
+      </c>
+      <c r="S35">
+        <v>0.08211113579531241</v>
+      </c>
+      <c r="T35">
+        <v>0.06275372569993028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>124.855103655737</v>
-      </c>
-      <c r="H31">
-        <v>124.855103655737</v>
-      </c>
-      <c r="I31">
-        <v>0.3080556112786038</v>
-      </c>
-      <c r="J31">
-        <v>0.3080556112786038</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>29.9606358269187</v>
-      </c>
-      <c r="N31">
-        <v>29.9606358269187</v>
-      </c>
-      <c r="O31">
-        <v>0.06086948573023884</v>
-      </c>
-      <c r="P31">
-        <v>0.06086948573023884</v>
-      </c>
-      <c r="Q31">
-        <v>3740.738291761722</v>
-      </c>
-      <c r="R31">
-        <v>3740.738291761722</v>
-      </c>
-      <c r="S31">
-        <v>0.01875118663484298</v>
-      </c>
-      <c r="T31">
-        <v>0.01875118663484298</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>124.877892</v>
+      </c>
+      <c r="H36">
+        <v>249.755784</v>
+      </c>
+      <c r="I36">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J36">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6.253715333333335</v>
+      </c>
+      <c r="N36">
+        <v>18.761146</v>
+      </c>
+      <c r="O36">
+        <v>0.01231310631861279</v>
+      </c>
+      <c r="P36">
+        <v>0.0125771036621259</v>
+      </c>
+      <c r="Q36">
+        <v>780.9507879947442</v>
+      </c>
+      <c r="R36">
+        <v>4685.704727968465</v>
+      </c>
+      <c r="S36">
+        <v>0.003575773518956207</v>
+      </c>
+      <c r="T36">
+        <v>0.002732797548106289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>124.877892</v>
+      </c>
+      <c r="H37">
+        <v>249.755784</v>
+      </c>
+      <c r="I37">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J37">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>29.9633245</v>
+      </c>
+      <c r="N37">
+        <v>59.926649</v>
+      </c>
+      <c r="O37">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P37">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q37">
+        <v>3741.756800871954</v>
+      </c>
+      <c r="R37">
+        <v>14967.02720348782</v>
+      </c>
+      <c r="S37">
+        <v>0.01713254546715724</v>
+      </c>
+      <c r="T37">
+        <v>0.008729072278070118</v>
       </c>
     </row>
   </sheetData>
